--- a/Comparativa.xlsx
+++ b/Comparativa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchia\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EDA Deserción Empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57680497-2213-4CE9-83C7-DD984F15FD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A39788-588A-4ADA-BF24-03DE64B9DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A63F66EE-BCAA-4F6F-AB39-8920E2F93FE7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>PCA</t>
   </si>
@@ -114,9 +114,6 @@
     <t>0.0316</t>
   </si>
   <si>
-    <t>6040.98</t>
-  </si>
-  <si>
     <t>0.6503</t>
   </si>
   <si>
@@ -178,6 +175,135 @@
   </si>
   <si>
     <t>La mejor de todas</t>
+  </si>
+  <si>
+    <t>Regresion Árbol Aleatorio(Hiperparámetros)</t>
+  </si>
+  <si>
+    <t>5956.72</t>
+  </si>
+  <si>
+    <t>0.0397</t>
+  </si>
+  <si>
+    <t>0.8904</t>
+  </si>
+  <si>
+    <t>0.0572</t>
+  </si>
+  <si>
+    <t>5998.13</t>
+  </si>
+  <si>
+    <t>Mejores Variables</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>Bosques Aleatorios</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>K Vecinos Cercanos (KNN)</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>macro precision</t>
+  </si>
+  <si>
+    <t>macro recall</t>
+  </si>
+  <si>
+    <t>macro f1-score</t>
+  </si>
+  <si>
+    <t>weighted precision</t>
+  </si>
+  <si>
+    <t>weighted recall</t>
+  </si>
+  <si>
+    <t>weighted f1-score</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>Todas las Variables</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.30</t>
   </si>
 </sst>
 </file>
@@ -233,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -450,11 +576,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -476,9 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,21 +955,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0969F8-56EE-41D6-ADE4-46D92B14A5A1}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -824,10 +993,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -841,10 +1034,34 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -858,13 +1075,37 @@
         <v>13</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -878,11 +1119,35 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -898,8 +1163,32 @@
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -915,8 +1204,32 @@
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="I7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -930,100 +1243,168 @@
         <v>25</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="23"/>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
